--- a/examples/wangetal2018/out/ResultFiles/PL_0.5_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.5_nfc.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -300,13 +306,16 @@
     <t>ROW ($)</t>
   </si>
   <si>
+    <t>X52</t>
+  </si>
+  <si>
     <t>X42</t>
   </si>
   <si>
     <t>S 10</t>
   </si>
   <si>
-    <t>S 5S</t>
+    <t>S 40S</t>
   </si>
   <si>
     <t>Breakdown of compressor by station</t>
@@ -525,7 +534,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1164,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1186,10 +1195,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3929268738033981</v>
+        <v>0.4018776638505976</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1197,10 +1206,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1403313022090963</v>
+        <v>0.1609556598628507</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1211,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1219,10 +1228,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.0304821236176436</v>
+        <v>0.03084509128810233</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1233,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1241,10 +1250,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006298930928237998</v>
+        <v>0.006373935816810776</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1252,10 +1261,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02809869938805249</v>
+        <v>0.02803561448692309</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1266,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1274,10 +1283,10 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03183091593297466</v>
+        <v>0.03221433651257544</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1285,10 +1294,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.09562189535507815</v>
+        <v>0.07380901512718098</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1299,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1321,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1329,10 +1338,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.005428113709198811</v>
+        <v>0.007552960223331179</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1340,10 +1349,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.05354993277132336</v>
+        <v>0.06086183415274932</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1351,10 +1360,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001284959891792635</v>
+        <v>0.001229216380073816</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1365,7 +1374,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1376,7 +1385,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1387,7 +1396,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1398,7 +1407,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1409,7 +1418,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1417,10 +1426,10 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>348.17003191639</v>
+        <v>357.1821441622754</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1428,10 +1437,10 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>216.3427609019192</v>
+        <v>221.9426261002573</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1450,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1458,10 +1467,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>3724.13697634845</v>
+        <v>2874.601903698818</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1469,10 +1478,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>155.1723740145188</v>
+        <v>119.7750793207841</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1491,10 +1500,10 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>233630170.5617347</v>
+        <v>264813294.1257166</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1505,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1516,7 +1525,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1527,7 +1536,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1535,234 +1544,297 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>46780040</v>
+        <v>46125768</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>650</v>
-      </c>
-      <c r="B46">
-        <v>224.4736531068113</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D46" t="s">
+      <c r="H46" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E46">
-        <v>62895147.14725702</v>
-      </c>
-      <c r="F46">
-        <v>48346851.32259399</v>
-      </c>
-      <c r="G46">
-        <v>21259695.45989154</v>
-      </c>
-      <c r="H46">
-        <v>4067814.261511325</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="B47">
-        <v>123.6963788095787</v>
+        <v>69.86409477641448</v>
       </c>
       <c r="C47" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E47">
-        <v>46780764.14889113</v>
+        <v>26853596.15137457</v>
       </c>
       <c r="F47">
-        <v>33305705.8815828</v>
+        <v>18157751.2684868</v>
       </c>
       <c r="G47">
-        <v>14501189.50156351</v>
+        <v>7889445.162651355</v>
       </c>
       <c r="H47">
-        <v>2473002.838443335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+        <v>1323800.691788701</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>800</v>
+      </c>
+      <c r="B48">
+        <v>129.6288908893693</v>
+      </c>
+      <c r="C48" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2" t="s">
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48">
+        <v>53742721.68354018</v>
+      </c>
+      <c r="F48">
+        <v>37588259.24768284</v>
+      </c>
+      <c r="G48">
+        <v>16333902.39112353</v>
+      </c>
+      <c r="H48">
+        <v>2715291.319930874</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>650</v>
+      </c>
+      <c r="B49">
+        <v>94.05976747061803</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>6.153431448088326</v>
-      </c>
-      <c r="C53">
-        <v>12.5</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G53">
-        <v>58.81315712903015</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="E49">
+        <v>26354553.56930614</v>
+      </c>
+      <c r="F49">
+        <v>21797689.40210978</v>
+      </c>
+      <c r="G49">
+        <v>9518856.229000324</v>
+      </c>
+      <c r="H49">
+        <v>1693706.696484948</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50">
+        <v>63.62939102587364</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50">
+        <v>17828283.43582227</v>
+      </c>
+      <c r="F50">
+        <v>15238957.32991263</v>
+      </c>
+      <c r="G50">
+        <v>6633992.653521545</v>
+      </c>
+      <c r="H50">
+        <v>1142486.892980135</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54">
-        <v>5.04672688726892</v>
-      </c>
-      <c r="C54">
+      <c r="H55" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56">
+        <v>4.185790306167545</v>
+      </c>
+      <c r="C56">
         <v>12.5</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>16916025.69007904</v>
       </c>
-      <c r="G54">
-        <v>48.23551605510431</v>
-      </c>
-      <c r="H54">
+      <c r="G56">
+        <v>40.00687178570634</v>
+      </c>
+      <c r="H56">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55">
-        <v>5.035028019978773</v>
-      </c>
-      <c r="C55">
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57">
+        <v>3.310379907809677</v>
+      </c>
+      <c r="C57">
         <v>12.5</v>
       </c>
-      <c r="D55">
+      <c r="D57">
         <v>0</v>
       </c>
-      <c r="E55">
+      <c r="E57">
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="F57">
         <v>16916025.69007904</v>
       </c>
-      <c r="G55">
-        <v>48.12370083038431</v>
-      </c>
-      <c r="H55">
+      <c r="G57">
+        <v>31.63988992439008</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58">
+        <v>5.035511058851267</v>
+      </c>
+      <c r="C58">
+        <v>12.5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G58">
+        <v>48.12831761068765</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1781,58 +1853,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1840,31 +1912,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2">
-        <v>49.4699910363479</v>
+        <v>44.50359783737017</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
         <v>4.865822962046021</v>
@@ -1879,16 +1951,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4474911.326192158</v>
+        <v>4549834.853792568</v>
       </c>
       <c r="P2">
-        <v>8.836382105025814</v>
+        <v>7.821336656266508</v>
       </c>
       <c r="Q2">
-        <v>0.01468934061995087</v>
+        <v>0.0129959657188634</v>
       </c>
       <c r="R2">
-        <v>29.30427934822141</v>
+        <v>29.06730693879167</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1896,55 +1968,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F3">
-        <v>49.46998423474211</v>
+        <v>44.50358371176771</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>26.78156417081942</v>
+        <v>29.86409477641448</v>
       </c>
       <c r="M3">
-        <v>16.64128731038623</v>
+        <v>18.55668243531544</v>
       </c>
       <c r="N3">
-        <v>4474911.326192158</v>
+        <v>4549834.853792568</v>
       </c>
       <c r="O3">
-        <v>4193340.111228675</v>
+        <v>4299150.432120392</v>
       </c>
       <c r="P3">
-        <v>9.415907023895919</v>
+        <v>8.266955292799969</v>
       </c>
       <c r="Q3">
-        <v>0.01568072293641933</v>
+        <v>0.01375793413475337</v>
       </c>
       <c r="R3">
-        <v>30.24997078372854</v>
+        <v>29.88389909263032</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1952,55 +2024,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F4">
-        <v>50.11478892265755</v>
+        <v>54.92233300641389</v>
       </c>
       <c r="G4">
-        <v>650</v>
+        <v>700</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>7.925</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>5.096226240974513</v>
+        <v>5.867490884162376</v>
       </c>
       <c r="L4">
-        <v>66.78156417081942</v>
+        <v>69.86409477641448</v>
       </c>
       <c r="M4">
-        <v>41.49612731038624</v>
+        <v>43.41152243531544</v>
       </c>
       <c r="N4">
         <v>4865822.962046022</v>
       </c>
       <c r="O4">
-        <v>4193340.111228675</v>
+        <v>4299150.432120392</v>
       </c>
       <c r="P4">
-        <v>9.444160603258739</v>
+        <v>8.679266966379249</v>
       </c>
       <c r="Q4">
-        <v>0.01572777486129774</v>
+        <v>0.01444410657033363</v>
       </c>
       <c r="R4">
-        <v>30.24997078372854</v>
+        <v>29.88389909263032</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2008,55 +2080,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F5">
-        <v>99.58490822915364</v>
+        <v>99.42632733095404</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>3.218435829180578</v>
+        <v>0.1359052235855245</v>
       </c>
       <c r="M5">
-        <v>1.999842689613765</v>
+        <v>0.08444756468456095</v>
       </c>
       <c r="N5">
-        <v>4193340.111228675</v>
+        <v>4299150.432120392</v>
       </c>
       <c r="O5">
-        <v>4054246.120615223</v>
+        <v>4293525.137966512</v>
       </c>
       <c r="P5">
-        <v>19.58952274511228</v>
+        <v>18.4931554378338</v>
       </c>
       <c r="Q5">
-        <v>0.03265326782044341</v>
+        <v>0.03077756534168669</v>
       </c>
       <c r="R5">
-        <v>30.75241914635484</v>
+        <v>29.9030257037343</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2064,31 +2136,31 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F6">
-        <v>47.14265507167892</v>
+        <v>44.12814881752927</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
         <v>4.865822962046021</v>
@@ -2103,16 +2175,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O6">
-        <v>4588734.323079007</v>
+        <v>4622870.585324795</v>
       </c>
       <c r="P6">
-        <v>8.216282931110944</v>
+        <v>7.635338875614507</v>
       </c>
       <c r="Q6">
-        <v>0.01364897225526202</v>
+        <v>0.012681277312526</v>
       </c>
       <c r="R6">
-        <v>28.94653361622371</v>
+        <v>28.8417883387497</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2120,31 +2192,31 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F7">
-        <v>29.48432479137062</v>
+        <v>26.46981757474065</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
         <v>4.865822962046021</v>
@@ -2156,19 +2228,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>4588734.323079007</v>
+        <v>4622870.585324795</v>
       </c>
       <c r="O7">
-        <v>4407563.485368278</v>
+        <v>4477184.072828637</v>
       </c>
       <c r="P7">
-        <v>5.345164596596713</v>
+        <v>4.725693576492948</v>
       </c>
       <c r="Q7">
-        <v>0.008889370896469675</v>
+        <v>0.007855742896416808</v>
       </c>
       <c r="R7">
-        <v>29.52234476986044</v>
+        <v>29.29700498584418</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2176,55 +2248,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F8">
-        <v>29.48432479433313</v>
+        <v>26.46981757764758</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>43.69637880957875</v>
+        <v>49.6288908893693</v>
       </c>
       <c r="M8">
-        <v>27.15166259728676</v>
+        <v>30.83795356081829</v>
       </c>
       <c r="N8">
-        <v>4407563.485368278</v>
+        <v>4477184.072828637</v>
       </c>
       <c r="O8">
-        <v>4237862.619148882</v>
+        <v>4323143.297722442</v>
       </c>
       <c r="P8">
-        <v>5.554279965273896</v>
+        <v>4.890252652992891</v>
       </c>
       <c r="Q8">
-        <v>0.009247115851145835</v>
+        <v>0.008137154370834431</v>
       </c>
       <c r="R8">
-        <v>30.0942960931259</v>
+        <v>29.80273308632405</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2232,55 +2304,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9">
-        <v>52.17742600088887</v>
+        <v>55.11730285580939</v>
       </c>
       <c r="G9">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>6.35</v>
+        <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>5.060455880527861</v>
+        <v>4.97665784139329</v>
       </c>
       <c r="L9">
-        <v>123.6963788095787</v>
+        <v>129.6288908893693</v>
       </c>
       <c r="M9">
-        <v>76.86134259728674</v>
+        <v>80.5476335608183</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4237862.619148882</v>
+        <v>4323143.297722442</v>
       </c>
       <c r="P9">
-        <v>7.201085584188634</v>
+        <v>6.648000770289302</v>
       </c>
       <c r="Q9">
-        <v>0.01198882178560201</v>
+        <v>0.01106196598905028</v>
       </c>
       <c r="R9">
-        <v>30.0942960931259</v>
+        <v>29.80273308632405</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2288,55 +2360,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F10">
-        <v>81.6617531898346</v>
+        <v>81.58713024264254</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>6.303621190421254</v>
+        <v>0.3711091106306981</v>
       </c>
       <c r="M10">
-        <v>3.916887402713245</v>
+        <v>0.2305964391817075</v>
       </c>
       <c r="N10">
-        <v>4237862.619148882</v>
+        <v>4323143.297722442</v>
       </c>
       <c r="O10">
-        <v>4054135.8462627</v>
+        <v>4312766.520295345</v>
       </c>
       <c r="P10">
-        <v>16.06412409327528</v>
+        <v>15.10853265291047</v>
       </c>
       <c r="Q10">
-        <v>0.02677689193963278</v>
+        <v>0.02514155982056333</v>
       </c>
       <c r="R10">
-        <v>30.75282752163986</v>
+        <v>29.83775523323003</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2344,31 +2416,31 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F11">
-        <v>40.45846243986593</v>
+        <v>40.4584727516427</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
         <v>4.865822962046021</v>
@@ -2383,16 +2455,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>4536856.8855498</v>
+        <v>4536856.717719935</v>
       </c>
       <c r="P11">
-        <v>7.130180746874386</v>
+        <v>7.130182815298066</v>
       </c>
       <c r="Q11">
-        <v>0.01184847963670474</v>
+        <v>0.01184848308606747</v>
       </c>
       <c r="R11">
-        <v>29.10794020967977</v>
+        <v>29.10794073625512</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2400,55 +2472,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F12">
-        <v>40.45846244030469</v>
+        <v>40.45847275340093</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>44.06289687552299</v>
+        <v>44.05976747061803</v>
       </c>
       <c r="M12">
-        <v>27.3794062944406</v>
+        <v>27.3774617729854</v>
       </c>
       <c r="N12">
-        <v>4536856.8855498</v>
+        <v>4536856.717719935</v>
       </c>
       <c r="O12">
-        <v>4226275.875971984</v>
+        <v>4226298.387089691</v>
       </c>
       <c r="P12">
-        <v>7.64201330765457</v>
+        <v>7.641975476335455</v>
       </c>
       <c r="Q12">
-        <v>0.01272385908629264</v>
+        <v>0.01272379424400327</v>
       </c>
       <c r="R12">
-        <v>30.13457698282865</v>
+        <v>30.13449856607723</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2456,55 +2528,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F13">
-        <v>40.98632047663598</v>
+        <v>40.98633091390594</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I13">
         <v>7.925</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K13">
         <v>5.096226240974513</v>
       </c>
       <c r="L13">
-        <v>94.06289687552299</v>
+        <v>94.05976747061803</v>
       </c>
       <c r="M13">
-        <v>58.4479562944406</v>
+        <v>58.44601177298539</v>
       </c>
       <c r="N13">
         <v>4865822.962046022</v>
       </c>
       <c r="O13">
-        <v>4226275.875971984</v>
+        <v>4226298.387089691</v>
       </c>
       <c r="P13">
-        <v>7.66503813233598</v>
+        <v>7.665000184810731</v>
       </c>
       <c r="Q13">
-        <v>0.01276219513897124</v>
+        <v>0.0127621300976153</v>
       </c>
       <c r="R13">
-        <v>30.13457698282865</v>
+        <v>30.13449856607723</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2512,55 +2584,55 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F14">
-        <v>81.44478291038968</v>
+        <v>81.44480368078918</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>5.937103124477005</v>
+        <v>5.940232529381973</v>
       </c>
       <c r="M14">
-        <v>3.689143705559401</v>
+        <v>3.691088227014606</v>
       </c>
       <c r="N14">
-        <v>4226275.875971984</v>
+        <v>4226298.387089691</v>
       </c>
       <c r="O14">
-        <v>4053889.54305423</v>
+        <v>4053820.15069415</v>
       </c>
       <c r="P14">
-        <v>16.02239208798377</v>
+        <v>16.02266397585228</v>
       </c>
       <c r="Q14">
-        <v>0.02670737394472998</v>
+        <v>0.0267078395610446</v>
       </c>
       <c r="R14">
-        <v>30.75373970698799</v>
+        <v>30.7539967167091</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2568,31 +2640,31 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F15">
-        <v>40.35097030536114</v>
+        <v>40.35097030510499</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
         <v>4.865822962046021</v>
@@ -2607,16 +2679,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O15">
-        <v>4538602.521571741</v>
+        <v>4538602.521576029</v>
       </c>
       <c r="P15">
-        <v>7.10856178868158</v>
+        <v>7.108561788633766</v>
       </c>
       <c r="Q15">
-        <v>0.01181242826163119</v>
+        <v>0.01181242826155142</v>
       </c>
       <c r="R15">
-        <v>29.10246473726165</v>
+        <v>29.10246473724821</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2624,55 +2696,55 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F16">
-        <v>40.3509703053636</v>
+        <v>40.35097030511974</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
         <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>13.62919206046886</v>
+        <v>13.62939102587364</v>
       </c>
       <c r="M16">
-        <v>8.468784699805596</v>
+        <v>8.468908331138129</v>
       </c>
       <c r="N16">
-        <v>4538602.521571741</v>
+        <v>4538602.521576029</v>
       </c>
       <c r="O16">
-        <v>4445325.760651996</v>
+        <v>4445324.384991084</v>
       </c>
       <c r="P16">
-        <v>7.254396950146075</v>
+        <v>7.254399145253735</v>
       </c>
       <c r="Q16">
-        <v>0.01206171001396053</v>
+        <v>0.01206171376696124</v>
       </c>
       <c r="R16">
-        <v>29.39947386050562</v>
+        <v>29.39947830855876</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2680,55 +2752,55 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F17">
-        <v>40.87734696973143</v>
+        <v>40.87734697001193</v>
       </c>
       <c r="G17">
         <v>650</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I17">
         <v>7.925</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K17">
         <v>5.096226240974513</v>
       </c>
       <c r="L17">
-        <v>63.62919206046886</v>
+        <v>63.62939102587364</v>
       </c>
       <c r="M17">
-        <v>39.5373346998056</v>
+        <v>39.53745833113813</v>
       </c>
       <c r="N17">
         <v>4865822.962046022</v>
       </c>
       <c r="O17">
-        <v>4445325.760651996</v>
+        <v>4445324.384991084</v>
       </c>
       <c r="P17">
-        <v>7.276239865406417</v>
+        <v>7.276242067209702</v>
       </c>
       <c r="Q17">
-        <v>0.01209802769984681</v>
+        <v>0.01209803146429105</v>
       </c>
       <c r="R17">
-        <v>29.39947386050562</v>
+        <v>29.39947830855876</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2736,55 +2808,55 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F18">
-        <v>81.22831726642471</v>
+        <v>81.22831723721717</v>
       </c>
       <c r="G18">
         <v>650</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>9.525</v>
       </c>
       <c r="J18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18">
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>36.37080793953114</v>
+        <v>36.37060897412636</v>
       </c>
       <c r="M18">
-        <v>22.59976530019441</v>
+        <v>22.59964166886187</v>
       </c>
       <c r="N18">
-        <v>4445325.760651996</v>
+        <v>4445324.384991084</v>
       </c>
       <c r="O18">
-        <v>3327946.572188332</v>
+        <v>3327951.857488049</v>
       </c>
       <c r="P18">
-        <v>19.36768467520297</v>
+        <v>19.36765473902675</v>
       </c>
       <c r="Q18">
-        <v>0.03245551431130858</v>
+        <v>0.03245546276041416</v>
       </c>
       <c r="R18">
-        <v>33.85719823281065</v>
+        <v>33.85717209467619</v>
       </c>
     </row>
   </sheetData>
@@ -2802,72 +2874,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2876,16 +2948,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.200179470433246</v>
+        <v>1.133293227753305</v>
       </c>
       <c r="I2">
-        <v>58.81315712903015</v>
+        <v>40.00687178570634</v>
       </c>
       <c r="J2">
-        <v>6.153431448088326</v>
+        <v>4.185790306167545</v>
       </c>
       <c r="K2">
-        <v>8251.874640515407</v>
+        <v>5613.2285163768</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2911,16 +2983,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2929,16 +3001,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.200212115864735</v>
+        <v>1.128237046718866</v>
       </c>
       <c r="I3">
-        <v>48.23551605510431</v>
+        <v>31.63988992439008</v>
       </c>
       <c r="J3">
-        <v>5.04672688726892</v>
+        <v>3.310379907809677</v>
       </c>
       <c r="K3">
-        <v>6767.761690365367</v>
+        <v>4439.285663970933</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2964,16 +3036,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2982,16 +3054,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.20028503746061</v>
+        <v>1.200305583663555</v>
       </c>
       <c r="I4">
-        <v>48.12370083038431</v>
+        <v>48.12831761068765</v>
       </c>
       <c r="J4">
-        <v>5.035028019978773</v>
+        <v>5.035511058851267</v>
       </c>
       <c r="K4">
-        <v>6752.073275351934</v>
+        <v>6752.721040140726</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3030,15 +3102,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3046,31 +3118,31 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B3">
-        <v>4474911.326192158</v>
+        <v>4549834.853792568</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B4">
-        <v>4193340.111228675</v>
+        <v>4299150.432120392</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B5">
-        <v>4054246.120615223</v>
+        <v>4293525.137966512</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>4865822.962046022</v>
@@ -3078,39 +3150,39 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7">
-        <v>4588734.323079007</v>
+        <v>4622870.585324795</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B8">
-        <v>4407563.485368278</v>
+        <v>4477184.072828637</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B9">
-        <v>4237862.619148882</v>
+        <v>4323143.297722442</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B10">
-        <v>4054135.8462627</v>
+        <v>4312766.520295345</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>4865822.962046022</v>
@@ -3118,31 +3190,31 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12">
-        <v>4536856.8855498</v>
+        <v>4536856.717719935</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B13">
-        <v>4226275.875971984</v>
+        <v>4226298.387089691</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B14">
-        <v>4053889.54305423</v>
+        <v>4053820.15069415</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15">
         <v>4865822.962046022</v>
@@ -3150,26 +3222,26 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B16">
-        <v>4538602.521571741</v>
+        <v>4538602.521576029</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B17">
-        <v>4445325.760651996</v>
+        <v>4445324.384991084</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B18">
-        <v>3327946.572188332</v>
+        <v>3327951.857488049</v>
       </c>
     </row>
   </sheetData>
@@ -3187,36 +3259,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.6583302803083</v>
+        <v>17.65833124278862</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3225,21 +3297,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520419835423</v>
+        <v>1150.520482545387</v>
       </c>
       <c r="G2">
-        <v>1.724039191334621E-06</v>
+        <v>7.174613070832907E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165731844659</v>
+        <v>45.91165730193799</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -3248,21 +3320,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999681067</v>
+        <v>2991.352998605456</v>
       </c>
       <c r="G3">
-        <v>-1.06618420419027E-08</v>
+        <v>-4.661917570519869E-08</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665994797812</v>
+        <v>35.3166599352792</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -3271,10 +3343,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799754667</v>
+        <v>2301.040798927274</v>
       </c>
       <c r="G4">
-        <v>-1.06618449945945E-08</v>
+        <v>-4.661917043892194E-08</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/PL_0.5_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.5_nfc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="247">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -312,12 +312,12 @@
     <t>X42</t>
   </si>
   <si>
+    <t>S 5S</t>
+  </si>
+  <si>
     <t>S 10</t>
   </si>
   <si>
-    <t>S 40S</t>
-  </si>
-  <si>
     <t>Breakdown of compressor by station</t>
   </si>
   <si>
@@ -402,9 +402,18 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
@@ -414,12 +423,27 @@
     <t>PI02_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
@@ -429,9 +453,21 @@
     <t>PI05_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
@@ -441,55 +477,211 @@
     <t>PI07_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_pre_loop_cxn</t>
+    <t>PI09_0_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_3_loop</t>
   </si>
   <si>
-    <t>PI09_post_loop_cxn</t>
+    <t>PI09_0_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
+    <t>PI09</t>
+  </si>
+  <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_0_loop_1</t>
+  </si>
+  <si>
+    <t>PS_0_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
+    <t>PS_2_loop_0</t>
+  </si>
+  <si>
+    <t>PS_2_loop_1</t>
+  </si>
+  <si>
+    <t>PS_2_loop_2</t>
+  </si>
+  <si>
+    <t>PS_2_loop_3</t>
+  </si>
+  <si>
+    <t>PS_2_loop_4</t>
+  </si>
+  <si>
+    <t>PS_3_loop_0</t>
+  </si>
+  <si>
+    <t>PS_3_loop_1</t>
+  </si>
+  <si>
+    <t>PS_3_loop_2</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N01_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N06_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
+    <t>N08_C_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
+    <t>N01_1_</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
+  </si>
+  <si>
+    <t>N06_C_0_</t>
+  </si>
+  <si>
+    <t>N06_C_1_</t>
+  </si>
+  <si>
+    <t>N06_C_2</t>
+  </si>
+  <si>
+    <t>N06_C_3</t>
+  </si>
+  <si>
+    <t>N08_C_0_</t>
+  </si>
+  <si>
+    <t>N08_C_1_</t>
   </si>
   <si>
     <t>N03</t>
@@ -1195,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.4018776638505976</v>
+        <v>0.4087636062575301</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1206,7 +1398,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1609556598628507</v>
+        <v>0.1637879744287436</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1228,7 +1420,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03084509128810233</v>
+        <v>0.03084600714441174</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1250,7 +1442,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006373935816810776</v>
+        <v>0.006374125072510463</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1261,7 +1453,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02803561448692309</v>
+        <v>0.02891134394953335</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1283,7 +1475,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03221433651257544</v>
+        <v>0.03220829689907383</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1294,7 +1486,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.07380901512718098</v>
+        <v>0.07584568130341096</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1338,7 +1530,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.007552960223331179</v>
+        <v>0.007678120070618328</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1349,7 +1541,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.06086183415274932</v>
+        <v>0.06186093066620445</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1360,7 +1552,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001229216380073816</v>
+        <v>0.00125112672302319</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1426,7 +1618,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>357.1821441622754</v>
+        <v>357.040186015806</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1437,7 +1629,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>221.9426261002573</v>
+        <v>221.8544174248274</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1467,7 +1659,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2874.601903698818</v>
+        <v>2953.922897987952</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1478,7 +1670,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>119.7750793207841</v>
+        <v>123.080120749498</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1500,7 +1692,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>264813294.1257166</v>
+        <v>269465176.175768</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1544,7 +1736,7 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>46125768</v>
+        <v>47565155</v>
       </c>
       <c r="C34" t="s">
         <v>78</v>
@@ -1585,7 +1777,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1627,28 +1819,28 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="B47">
-        <v>69.86409477641448</v>
+        <v>66.82056572328409</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D47" t="s">
         <v>95</v>
       </c>
       <c r="E47">
-        <v>26853596.15137457</v>
+        <v>25270886.30628829</v>
       </c>
       <c r="F47">
-        <v>18157751.2684868</v>
+        <v>18949081.08033739</v>
       </c>
       <c r="G47">
-        <v>7889445.162651355</v>
+        <v>8209919.782147786</v>
       </c>
       <c r="H47">
-        <v>1323800.691788701</v>
+        <v>1329911.497717966</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1656,25 +1848,25 @@
         <v>800</v>
       </c>
       <c r="B48">
-        <v>129.6288908893693</v>
+        <v>129.9098921316806</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>96</v>
       </c>
       <c r="E48">
-        <v>53742721.68354018</v>
+        <v>57147060.70739178</v>
       </c>
       <c r="F48">
-        <v>37588259.24768284</v>
+        <v>37662873.953174</v>
       </c>
       <c r="G48">
-        <v>16333902.39112353</v>
+        <v>16366608.87068939</v>
       </c>
       <c r="H48">
-        <v>2715291.319930874</v>
+        <v>2721220.42914189</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1682,25 +1874,25 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>94.05976747061803</v>
+        <v>94.97613720206566</v>
       </c>
       <c r="C49" t="s">
         <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E49">
-        <v>26354553.56930614</v>
+        <v>26611310.69114647</v>
       </c>
       <c r="F49">
-        <v>21797689.40210978</v>
+        <v>21992093.38420032</v>
       </c>
       <c r="G49">
-        <v>9518856.229000324</v>
+        <v>9604493.765288245</v>
       </c>
       <c r="H49">
-        <v>1693706.696484948</v>
+        <v>1710328.708793049</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1708,25 +1900,25 @@
         <v>650</v>
       </c>
       <c r="B50">
-        <v>63.62939102587364</v>
+        <v>65.33359095877564</v>
       </c>
       <c r="C50" t="s">
         <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E50">
-        <v>17828283.43582227</v>
+        <v>18305782.26058286</v>
       </c>
       <c r="F50">
-        <v>15238957.32991263</v>
+        <v>15612326.2589568</v>
       </c>
       <c r="G50">
-        <v>6633992.653521545</v>
+        <v>6797965.436797283</v>
       </c>
       <c r="H50">
-        <v>1142486.892980135</v>
+        <v>1173313.043114481</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1765,7 +1957,7 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>4.185790306167545</v>
+        <v>4.308837950135137</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1780,7 +1972,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>40.00687178570634</v>
+        <v>41.18293435828465</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1791,7 +1983,7 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>3.310379907809677</v>
+        <v>3.398049254341851</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1806,7 +1998,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>31.63988992439008</v>
+        <v>32.47781443797151</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1817,7 +2009,7 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>5.035511058851267</v>
+        <v>5.170589921821244</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1832,7 +2024,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>48.12831761068765</v>
+        <v>49.41937195324184</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1845,7 +2037,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1915,16 +2107,16 @@
         <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F2">
-        <v>44.50359783737017</v>
+        <v>39.78913967666136</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1942,25 +2134,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4549834.853792568</v>
+        <v>4781246.356806324</v>
       </c>
       <c r="P2">
-        <v>7.821336656266508</v>
+        <v>6.701874656451654</v>
       </c>
       <c r="Q2">
-        <v>0.0129959657188634</v>
+        <v>0.01100440122598705</v>
       </c>
       <c r="R2">
-        <v>29.06730693879167</v>
+        <v>28.66940509367302</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1971,16 +2163,16 @@
         <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F3">
-        <v>44.50358371176771</v>
+        <v>39.78914001847802</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -1998,25 +2190,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>29.86409477641448</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>18.55668243531544</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>4549834.853792568</v>
+        <v>4781246.356806324</v>
       </c>
       <c r="O3">
-        <v>4299150.432120392</v>
+        <v>4695147.158776171</v>
       </c>
       <c r="P3">
-        <v>8.266955292799969</v>
+        <v>6.720326014069024</v>
       </c>
       <c r="Q3">
-        <v>0.01375793413475337</v>
+        <v>0.01103823776143442</v>
       </c>
       <c r="R3">
-        <v>29.88389909263032</v>
+        <v>28.93096183695971</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2027,52 +2219,52 @@
         <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F4">
-        <v>54.92233300641389</v>
+        <v>39.78914037684113</v>
       </c>
       <c r="G4">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>5.867490884162376</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>69.86409477641448</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M4">
-        <v>43.41152243531544</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N4">
-        <v>4865822.962046022</v>
+        <v>4695147.158776171</v>
       </c>
       <c r="O4">
-        <v>4299150.432120392</v>
+        <v>4607440.050507797</v>
       </c>
       <c r="P4">
-        <v>8.679266966379249</v>
+        <v>6.738930643733128</v>
       </c>
       <c r="Q4">
-        <v>0.01444410657033363</v>
+        <v>0.01107242877071622</v>
       </c>
       <c r="R4">
-        <v>29.88389909263032</v>
+        <v>29.20490274316574</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2083,16 +2275,16 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F5">
-        <v>99.42632733095404</v>
+        <v>39.78914072169321</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2110,45 +2302,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>0.1359052235855245</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>0.08444756468456095</v>
+        <v>9.320565</v>
       </c>
       <c r="N5">
-        <v>4299150.432120392</v>
+        <v>4607440.050507797</v>
       </c>
       <c r="O5">
-        <v>4293525.137966512</v>
+        <v>4506730.076299199</v>
       </c>
       <c r="P5">
-        <v>18.4931554378338</v>
+        <v>6.76004667381516</v>
       </c>
       <c r="Q5">
-        <v>0.03077756534168669</v>
+        <v>0.01111124043982947</v>
       </c>
       <c r="R5">
-        <v>29.9030257037343</v>
+        <v>29.52949804886867</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F6">
-        <v>44.12814881752927</v>
+        <v>39.78914110016824</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2166,101 +2358,101 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>11.82056572328409</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>7.344956744042759</v>
       </c>
       <c r="N6">
-        <v>4865822.962046022</v>
+        <v>4506730.076299199</v>
       </c>
       <c r="O6">
-        <v>4622870.585324795</v>
+        <v>4425751.88788503</v>
       </c>
       <c r="P6">
-        <v>7.635338875614507</v>
+        <v>6.776827550879237</v>
       </c>
       <c r="Q6">
-        <v>0.012681277312526</v>
+        <v>0.01114214049704314</v>
       </c>
       <c r="R6">
-        <v>28.8417883387497</v>
+        <v>29.79853287701973</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F7">
-        <v>26.46981757474065</v>
+        <v>59.65098447156598</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I7">
-        <v>9.525</v>
+        <v>6.35</v>
       </c>
       <c r="J7" t="s">
         <v>85</v>
       </c>
       <c r="K7">
-        <v>4.865822962046021</v>
+        <v>5.060455880527861</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>16.70514143082102</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>10.38009043601069</v>
       </c>
       <c r="N7">
-        <v>4622870.585324795</v>
+        <v>4539770.556345899</v>
       </c>
       <c r="O7">
-        <v>4477184.072828637</v>
+        <v>4425751.88788503</v>
       </c>
       <c r="P7">
-        <v>4.725693576492948</v>
+        <v>7.448518866485439</v>
       </c>
       <c r="Q7">
-        <v>0.007855742896416808</v>
+        <v>0.01224137256764208</v>
       </c>
       <c r="R7">
-        <v>29.29700498584418</v>
+        <v>29.79853287701973</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F8">
-        <v>26.46981757764758</v>
+        <v>99.43996001667108</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2278,25 +2470,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>49.6288908893693</v>
+        <v>3.179434276715909</v>
       </c>
       <c r="M8">
-        <v>30.83795356081829</v>
+        <v>1.975608255957241</v>
       </c>
       <c r="N8">
-        <v>4477184.072828637</v>
+        <v>4425751.88788503</v>
       </c>
       <c r="O8">
-        <v>4323143.297722442</v>
+        <v>4292954.973547502</v>
       </c>
       <c r="P8">
-        <v>4.890252652992891</v>
+        <v>16.94144462813642</v>
       </c>
       <c r="Q8">
-        <v>0.008137154370834431</v>
+        <v>0.02786798862036734</v>
       </c>
       <c r="R8">
-        <v>29.80273308632405</v>
+        <v>30.25610086565192</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2307,19 +2499,19 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F9">
-        <v>55.11730285580939</v>
+        <v>43.92418552317702</v>
       </c>
       <c r="G9">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="H9" t="s">
         <v>86</v>
@@ -2328,31 +2520,31 @@
         <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>4.97665784139329</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>129.6288908893693</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>80.5476335608183</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4323143.297722442</v>
+        <v>4744414.172809523</v>
       </c>
       <c r="P9">
-        <v>6.648000770289302</v>
+        <v>7.402888031636709</v>
       </c>
       <c r="Q9">
-        <v>0.01106196598905028</v>
+        <v>0.01215712292555674</v>
       </c>
       <c r="R9">
-        <v>29.80273308632405</v>
+        <v>28.78042463802716</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2363,16 +2555,16 @@
         <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F10">
-        <v>81.58713024264254</v>
+        <v>43.92418553176988</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2390,45 +2582,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>0.3711091106306981</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>0.2305964391817075</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>4323143.297722442</v>
+        <v>4744414.172809523</v>
       </c>
       <c r="O10">
-        <v>4312766.520295345</v>
+        <v>4619817.342340196</v>
       </c>
       <c r="P10">
-        <v>15.10853265291047</v>
+        <v>7.427010753942475</v>
       </c>
       <c r="Q10">
-        <v>0.02514155982056333</v>
+        <v>0.01220241561116812</v>
       </c>
       <c r="R10">
-        <v>29.83775523323003</v>
+        <v>29.16577197657877</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F11">
-        <v>40.4584727516427</v>
+        <v>26.2658559838588</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2446,45 +2638,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>4865822.962046022</v>
+        <v>4619817.342340196</v>
       </c>
       <c r="O11">
-        <v>4536856.717719935</v>
+        <v>4571388.72969747</v>
       </c>
       <c r="P11">
-        <v>7.130182815298066</v>
+        <v>4.456170339443251</v>
       </c>
       <c r="Q11">
-        <v>0.01184848308606747</v>
+        <v>0.007322706900250157</v>
       </c>
       <c r="R11">
-        <v>29.10794073625512</v>
+        <v>29.31983649203617</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F12">
-        <v>40.45847275340093</v>
+        <v>26.26585598405863</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2502,101 +2694,101 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>44.05976747061803</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>27.3774617729854</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>4536856.717719935</v>
+        <v>4571388.72969747</v>
       </c>
       <c r="O12">
-        <v>4226298.387089691</v>
+        <v>4522441.38532024</v>
       </c>
       <c r="P12">
-        <v>7.641975476335455</v>
+        <v>4.471276663970028</v>
       </c>
       <c r="Q12">
-        <v>0.01272379424400327</v>
+        <v>0.007348849377093771</v>
       </c>
       <c r="R12">
-        <v>30.13449856607723</v>
+        <v>29.47813924553851</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="F13">
-        <v>40.98633091390594</v>
+        <v>26.26585598448707</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>5.096226240974513</v>
+        <v>4.865822962046021</v>
       </c>
       <c r="L13">
-        <v>94.05976747061803</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>58.44601177298539</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>4865822.962046022</v>
+        <v>4522441.38532024</v>
       </c>
       <c r="O13">
-        <v>4226298.387089691</v>
+        <v>4472958.231452052</v>
       </c>
       <c r="P13">
-        <v>7.665000184810731</v>
+        <v>4.486537691092233</v>
       </c>
       <c r="Q13">
-        <v>0.0127621300976153</v>
+        <v>0.007375272398407068</v>
       </c>
       <c r="R13">
-        <v>30.13449856607723</v>
+        <v>29.64080997774849</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F14">
-        <v>81.44480368078918</v>
+        <v>26.26585598493526</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2614,45 +2806,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>5.940232529381973</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M14">
-        <v>3.691088227014606</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N14">
-        <v>4226298.387089691</v>
+        <v>4472958.231452052</v>
       </c>
       <c r="O14">
-        <v>4053820.15069415</v>
+        <v>4421364.712025659</v>
       </c>
       <c r="P14">
-        <v>16.02266397585228</v>
+        <v>4.502435474692401</v>
       </c>
       <c r="Q14">
-        <v>0.0267078395610446</v>
+        <v>0.007402811872612092</v>
       </c>
       <c r="R14">
-        <v>30.7539967167091</v>
+        <v>29.81331923930679</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F15">
-        <v>40.35097030510499</v>
+        <v>26.26585598540397</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2670,45 +2862,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N15">
-        <v>4865822.962046022</v>
+        <v>4421364.712025659</v>
       </c>
       <c r="O15">
-        <v>4538602.521576029</v>
+        <v>4369161.741428538</v>
       </c>
       <c r="P15">
-        <v>7.108561788633766</v>
+        <v>4.518503488999635</v>
       </c>
       <c r="Q15">
-        <v>0.01181242826155142</v>
+        <v>0.007430661012326928</v>
       </c>
       <c r="R15">
-        <v>29.10246473724821</v>
+        <v>29.99096834400926</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F16">
-        <v>40.35097030511974</v>
+        <v>26.26585598588683</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2726,101 +2918,101 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>13.62939102587364</v>
+        <v>16.57655879834728</v>
       </c>
       <c r="M16">
-        <v>8.468908331138129</v>
+        <v>10.30019291708785</v>
       </c>
       <c r="N16">
-        <v>4538602.521576029</v>
+        <v>4369161.741428538</v>
       </c>
       <c r="O16">
-        <v>4445324.384991084</v>
+        <v>4316614.585702442</v>
       </c>
       <c r="P16">
-        <v>7.254399145253735</v>
+        <v>4.534656514393365</v>
       </c>
       <c r="Q16">
-        <v>0.01206171376696124</v>
+        <v>0.007458672784437462</v>
       </c>
       <c r="R16">
-        <v>29.39947830855876</v>
+        <v>30.17303480134388</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="F17">
-        <v>40.87734697001193</v>
+        <v>55.33084360972884</v>
       </c>
       <c r="G17">
-        <v>650</v>
+        <v>800</v>
       </c>
       <c r="H17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I17">
         <v>7.925</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>5.096226240974513</v>
+        <v>5.13405452364208</v>
       </c>
       <c r="L17">
-        <v>63.62939102587364</v>
+        <v>21.65164868861343</v>
       </c>
       <c r="M17">
-        <v>39.53745833113813</v>
+        <v>13.45370659729242</v>
       </c>
       <c r="N17">
-        <v>4865822.962046022</v>
+        <v>4412899.220001278</v>
       </c>
       <c r="O17">
-        <v>4445324.384991084</v>
+        <v>4316614.585702442</v>
       </c>
       <c r="P17">
-        <v>7.276242067209702</v>
+        <v>6.190890783635926</v>
       </c>
       <c r="Q17">
-        <v>0.01209803146429105</v>
+        <v>0.01017925292082618</v>
       </c>
       <c r="R17">
-        <v>29.39947830855876</v>
+        <v>30.17303480134388</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F18">
-        <v>81.22831723721717</v>
+        <v>81.5966967882363</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -2838,25 +3030,1817 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>36.37060897412636</v>
+        <v>0.09010786831938944</v>
       </c>
       <c r="M18">
-        <v>22.59964166886187</v>
+        <v>0.05599041624548733</v>
       </c>
       <c r="N18">
-        <v>4445324.384991084</v>
+        <v>4316614.585702442</v>
       </c>
       <c r="O18">
-        <v>3327951.857488049</v>
+        <v>4314033.697271434</v>
       </c>
       <c r="P18">
-        <v>19.36765473902675</v>
+        <v>14.08734431632463</v>
       </c>
       <c r="Q18">
-        <v>0.03245546276041416</v>
+        <v>0.0231713018358135</v>
       </c>
       <c r="R18">
-        <v>33.85717209467619</v>
+        <v>30.18206276052872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F19">
+        <v>40.46142017592084</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O19">
+        <v>4756342.917697648</v>
+      </c>
+      <c r="P19">
+        <v>6.82056859603992</v>
+      </c>
+      <c r="Q19">
+        <v>0.01120033267611259</v>
+      </c>
+      <c r="R19">
+        <v>28.74432792459611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20">
+        <v>40.46142017595223</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>4756342.917697648</v>
+      </c>
+      <c r="O20">
+        <v>4644283.99755599</v>
+      </c>
+      <c r="P20">
+        <v>6.844102954820452</v>
+      </c>
+      <c r="Q20">
+        <v>0.0112436806664273</v>
+      </c>
+      <c r="R20">
+        <v>29.08888125649605</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21">
+        <v>40.46142017598282</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4644283.99755599</v>
+      </c>
+      <c r="O21">
+        <v>4529454.80623378</v>
+      </c>
+      <c r="P21">
+        <v>6.867882658999148</v>
+      </c>
+      <c r="Q21">
+        <v>0.01128754496230341</v>
+      </c>
+      <c r="R21">
+        <v>29.45529937563453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22">
+        <v>40.46142017601687</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4529454.80623378</v>
+      </c>
+      <c r="O22">
+        <v>4411636.580224788</v>
+      </c>
+      <c r="P22">
+        <v>6.891912001550901</v>
+      </c>
+      <c r="Q22">
+        <v>0.01133194628892704</v>
+      </c>
+      <c r="R22">
+        <v>29.84618522139903</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23">
+        <v>40.46142017605251</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4411636.580224788</v>
+      </c>
+      <c r="O23">
+        <v>4290582.993616464</v>
+      </c>
+      <c r="P23">
+        <v>6.916195381353224</v>
+      </c>
+      <c r="Q23">
+        <v>0.01137696053112668</v>
+      </c>
+      <c r="R23">
+        <v>30.26446649218519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24">
+        <v>40.46142017608434</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L24">
+        <v>11.64280386873232</v>
+      </c>
+      <c r="M24">
+        <v>7.234500682718071</v>
+      </c>
+      <c r="N24">
+        <v>4290582.993616464</v>
+      </c>
+      <c r="O24">
+        <v>4203950.333064007</v>
+      </c>
+      <c r="P24">
+        <v>6.933312096398648</v>
+      </c>
+      <c r="Q24">
+        <v>0.01140878197033923</v>
+      </c>
+      <c r="R24">
+        <v>30.57484411687956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25">
+        <v>40.98919081458386</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>7.925</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L25">
+        <v>15.82935620034428</v>
+      </c>
+      <c r="M25">
+        <v>9.835902891564125</v>
+      </c>
+      <c r="N25">
+        <v>4321309.819653455</v>
+      </c>
+      <c r="O25">
+        <v>4203950.333064007</v>
+      </c>
+      <c r="P25">
+        <v>6.964359276014967</v>
+      </c>
+      <c r="Q25">
+        <v>0.01145488632905663</v>
+      </c>
+      <c r="R25">
+        <v>30.57484411687956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26">
+        <v>81.45061093939725</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L26">
+        <v>5.023862797934353</v>
+      </c>
+      <c r="M26">
+        <v>3.121682650615267</v>
+      </c>
+      <c r="N26">
+        <v>4203950.333064007</v>
+      </c>
+      <c r="O26">
+        <v>4054085.664258125</v>
+      </c>
+      <c r="P26">
+        <v>13.96369819518147</v>
+      </c>
+      <c r="Q26">
+        <v>0.02298990043434104</v>
+      </c>
+      <c r="R26">
+        <v>31.13538940464877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27">
+        <v>40.35098874849479</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O27">
+        <v>4756925.962207498</v>
+      </c>
+      <c r="P27">
+        <v>6.801953205847655</v>
+      </c>
+      <c r="Q27">
+        <v>0.01116973935133165</v>
+      </c>
+      <c r="R27">
+        <v>28.74256709535744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28">
+        <v>40.35098874849472</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4756925.962207498</v>
+      </c>
+      <c r="O28">
+        <v>4645478.129000544</v>
+      </c>
+      <c r="P28">
+        <v>6.825423332229649</v>
+      </c>
+      <c r="Q28">
+        <v>0.01121294315830972</v>
+      </c>
+      <c r="R28">
+        <v>29.08514403832001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29">
+        <v>40.35098874849485</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4645478.129000544</v>
+      </c>
+      <c r="O29">
+        <v>4531291.288315539</v>
+      </c>
+      <c r="P29">
+        <v>6.849138134388742</v>
+      </c>
+      <c r="Q29">
+        <v>0.01125666200446034</v>
+      </c>
+      <c r="R29">
+        <v>29.44932746334746</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30">
+        <v>40.35098874849479</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L30">
+        <v>15.33359095877564</v>
+      </c>
+      <c r="M30">
+        <v>9.527848747645377</v>
+      </c>
+      <c r="N30">
+        <v>4531291.288315539</v>
+      </c>
+      <c r="O30">
+        <v>4423634.047989782</v>
+      </c>
+      <c r="P30">
+        <v>6.871175900642958</v>
+      </c>
+      <c r="Q30">
+        <v>0.01129735174603887</v>
+      </c>
+      <c r="R30">
+        <v>29.80566801258152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31">
+        <v>40.87732852659423</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31">
+        <v>7.925</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L31">
+        <v>16.33339773969391</v>
+      </c>
+      <c r="M31">
+        <v>10.14909968691135</v>
+      </c>
+      <c r="N31">
+        <v>4538222.193934419</v>
+      </c>
+      <c r="O31">
+        <v>4423634.047989782</v>
+      </c>
+      <c r="P31">
+        <v>6.902138371194945</v>
+      </c>
+      <c r="Q31">
+        <v>0.01134348030972247</v>
+      </c>
+      <c r="R31">
+        <v>29.80566801258152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32">
+        <v>81.22831727241309</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L32">
+        <v>1.333075707891023</v>
+      </c>
+      <c r="M32">
+        <v>0.8283345856879528</v>
+      </c>
+      <c r="N32">
+        <v>4423634.047989782</v>
+      </c>
+      <c r="O32">
+        <v>4386559.827022292</v>
+      </c>
+      <c r="P32">
+        <v>13.83370242697778</v>
+      </c>
+      <c r="Q32">
+        <v>0.02274800798829461</v>
+      </c>
+      <c r="R32">
+        <v>29.93140950436151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" t="s">
+        <v>206</v>
+      </c>
+      <c r="E33" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33">
+        <v>81.22831727297488</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>4386559.827022292</v>
+      </c>
+      <c r="O33">
+        <v>3893355.111457177</v>
+      </c>
+      <c r="P33">
+        <v>13.88242966986232</v>
+      </c>
+      <c r="Q33">
+        <v>0.0228695572080745</v>
+      </c>
+      <c r="R33">
+        <v>31.77228733477683</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34">
+        <v>81.22831727271921</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N34">
+        <v>3893355.111457177</v>
+      </c>
+      <c r="O34">
+        <v>3327751.173035968</v>
+      </c>
+      <c r="P34">
+        <v>13.93167554807519</v>
+      </c>
+      <c r="Q34">
+        <v>0.02299796712953244</v>
+      </c>
+      <c r="R34">
+        <v>34.37073267761233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>207</v>
+      </c>
+      <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35">
+        <v>59.65098248721667</v>
+      </c>
+      <c r="G35">
+        <v>750</v>
+      </c>
+      <c r="H35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35">
+        <v>6.35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L35">
+        <v>16.70514143082102</v>
+      </c>
+      <c r="M35">
+        <v>10.38009043601069</v>
+      </c>
+      <c r="N35">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O35">
+        <v>4759620.119372088</v>
+      </c>
+      <c r="P35">
+        <v>7.472708461581822</v>
+      </c>
+      <c r="Q35">
+        <v>0.01227108837979978</v>
+      </c>
+      <c r="R35">
+        <v>28.73443478014935</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36">
+        <v>59.65098314663569</v>
+      </c>
+      <c r="G36">
+        <v>750</v>
+      </c>
+      <c r="H36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36">
+        <v>6.35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L36">
+        <v>16.70514143082102</v>
+      </c>
+      <c r="M36">
+        <v>10.38009043601069</v>
+      </c>
+      <c r="N36">
+        <v>4759620.119372088</v>
+      </c>
+      <c r="O36">
+        <v>4650993.940173431</v>
+      </c>
+      <c r="P36">
+        <v>7.472708724534675</v>
+      </c>
+      <c r="Q36">
+        <v>0.01227108881160008</v>
+      </c>
+      <c r="R36">
+        <v>29.06790013216289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>179</v>
+      </c>
+      <c r="E37" t="s">
+        <v>224</v>
+      </c>
+      <c r="F37">
+        <v>59.65098384386975</v>
+      </c>
+      <c r="G37">
+        <v>750</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <v>6.35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>5.060455880527861</v>
+      </c>
+      <c r="L37">
+        <v>16.70514143082102</v>
+      </c>
+      <c r="M37">
+        <v>10.38009043601069</v>
+      </c>
+      <c r="N37">
+        <v>4650993.940173431</v>
+      </c>
+      <c r="O37">
+        <v>4539770.556345899</v>
+      </c>
+      <c r="P37">
+        <v>7.460584394013395</v>
+      </c>
+      <c r="Q37">
+        <v>0.01225614560786597</v>
+      </c>
+      <c r="R37">
+        <v>29.42180142113721</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>209</v>
+      </c>
+      <c r="E38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F38">
+        <v>55.33084358159447</v>
+      </c>
+      <c r="G38">
+        <v>800</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38">
+        <v>7.925</v>
+      </c>
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38">
+        <v>5.13405452364208</v>
+      </c>
+      <c r="L38">
+        <v>21.65164868861343</v>
+      </c>
+      <c r="M38">
+        <v>13.45370659729242</v>
+      </c>
+      <c r="N38">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O38">
+        <v>4778672.734642847</v>
+      </c>
+      <c r="P38">
+        <v>6.230420129459861</v>
+      </c>
+      <c r="Q38">
+        <v>0.01023037617713326</v>
+      </c>
+      <c r="R38">
+        <v>28.67712078928744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39">
+        <v>55.33084358688102</v>
+      </c>
+      <c r="G39">
+        <v>800</v>
+      </c>
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39">
+        <v>7.925</v>
+      </c>
+      <c r="J39" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39">
+        <v>5.13405452364208</v>
+      </c>
+      <c r="L39">
+        <v>21.65164868861343</v>
+      </c>
+      <c r="M39">
+        <v>13.45370659729242</v>
+      </c>
+      <c r="N39">
+        <v>4778672.734642847</v>
+      </c>
+      <c r="O39">
+        <v>4689904.052139833</v>
+      </c>
+      <c r="P39">
+        <v>6.23042013229078</v>
+      </c>
+      <c r="Q39">
+        <v>0.01023037618178164</v>
+      </c>
+      <c r="R39">
+        <v>28.94712178748871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40">
+        <v>55.33084359246703</v>
+      </c>
+      <c r="G40">
+        <v>800</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40">
+        <v>7.925</v>
+      </c>
+      <c r="J40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40">
+        <v>5.13405452364208</v>
+      </c>
+      <c r="L40">
+        <v>21.65164868861343</v>
+      </c>
+      <c r="M40">
+        <v>13.45370659729242</v>
+      </c>
+      <c r="N40">
+        <v>4689904.052139833</v>
+      </c>
+      <c r="O40">
+        <v>4599423.250969747</v>
+      </c>
+      <c r="P40">
+        <v>6.22046683551389</v>
+      </c>
+      <c r="Q40">
+        <v>0.01021741145964373</v>
+      </c>
+      <c r="R40">
+        <v>29.23033203198657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41">
+        <v>55.33084359757994</v>
+      </c>
+      <c r="G41">
+        <v>800</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41">
+        <v>7.925</v>
+      </c>
+      <c r="J41" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41">
+        <v>5.13405452364208</v>
+      </c>
+      <c r="L41">
+        <v>21.65164868861343</v>
+      </c>
+      <c r="M41">
+        <v>13.45370659729242</v>
+      </c>
+      <c r="N41">
+        <v>4599423.250969747</v>
+      </c>
+      <c r="O41">
+        <v>4507126.612248347</v>
+      </c>
+      <c r="P41">
+        <v>6.21056109583841</v>
+      </c>
+      <c r="Q41">
+        <v>0.01020459571798483</v>
+      </c>
+      <c r="R41">
+        <v>29.52819850607859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42">
+        <v>55.33084360348864</v>
+      </c>
+      <c r="G42">
+        <v>800</v>
+      </c>
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42">
+        <v>7.925</v>
+      </c>
+      <c r="J42" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42">
+        <v>5.13405452364208</v>
+      </c>
+      <c r="L42">
+        <v>21.65164868861343</v>
+      </c>
+      <c r="M42">
+        <v>13.45370659729242</v>
+      </c>
+      <c r="N42">
+        <v>4507126.612248347</v>
+      </c>
+      <c r="O42">
+        <v>4412899.220001278</v>
+      </c>
+      <c r="P42">
+        <v>6.200702536410176</v>
+      </c>
+      <c r="Q42">
+        <v>0.0101918521840463</v>
+      </c>
+      <c r="R42">
+        <v>29.8419133201894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F43">
+        <v>40.98919081435788</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43">
+        <v>7.925</v>
+      </c>
+      <c r="J43" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L43">
+        <v>15.82935620034428</v>
+      </c>
+      <c r="M43">
+        <v>9.835902891564125</v>
+      </c>
+      <c r="N43">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O43">
+        <v>4761903.074472079</v>
+      </c>
+      <c r="P43">
+        <v>7.058028172381711</v>
+      </c>
+      <c r="Q43">
+        <v>0.011590034890316</v>
+      </c>
+      <c r="R43">
+        <v>28.72754907883384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44">
+        <v>40.98919081442983</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44">
+        <v>7.925</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L44">
+        <v>15.82935620034428</v>
+      </c>
+      <c r="M44">
+        <v>9.835902891564125</v>
+      </c>
+      <c r="N44">
+        <v>4761903.074472079</v>
+      </c>
+      <c r="O44">
+        <v>4655665.215857204</v>
+      </c>
+      <c r="P44">
+        <v>7.058028172454171</v>
+      </c>
+      <c r="Q44">
+        <v>0.01159003489043499</v>
+      </c>
+      <c r="R44">
+        <v>29.05332043184326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>215</v>
+      </c>
+      <c r="E45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45">
+        <v>40.98919081446301</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45">
+        <v>7.925</v>
+      </c>
+      <c r="J45" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L45">
+        <v>15.82935620034428</v>
+      </c>
+      <c r="M45">
+        <v>9.835902891564125</v>
+      </c>
+      <c r="N45">
+        <v>4655665.215857204</v>
+      </c>
+      <c r="O45">
+        <v>4546946.990692842</v>
+      </c>
+      <c r="P45">
+        <v>7.034256975169443</v>
+      </c>
+      <c r="Q45">
+        <v>0.01155557884783025</v>
+      </c>
+      <c r="R45">
+        <v>29.39856494522072</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46">
+        <v>40.98919081449466</v>
+      </c>
+      <c r="G46">
+        <v>650</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46">
+        <v>7.925</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L46">
+        <v>15.82935620034428</v>
+      </c>
+      <c r="M46">
+        <v>9.835902891564125</v>
+      </c>
+      <c r="N46">
+        <v>4546946.990692842</v>
+      </c>
+      <c r="O46">
+        <v>4435563.977636043</v>
+      </c>
+      <c r="P46">
+        <v>7.010724388439567</v>
+      </c>
+      <c r="Q46">
+        <v>0.01152156992044343</v>
+      </c>
+      <c r="R46">
+        <v>29.76554206870027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47">
+        <v>40.98919081453047</v>
+      </c>
+      <c r="G47">
+        <v>650</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47">
+        <v>7.925</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L47">
+        <v>15.82935620034428</v>
+      </c>
+      <c r="M47">
+        <v>9.835902891564125</v>
+      </c>
+      <c r="N47">
+        <v>4435563.977636043</v>
+      </c>
+      <c r="O47">
+        <v>4321309.819653455</v>
+      </c>
+      <c r="P47">
+        <v>6.987426446689906</v>
+      </c>
+      <c r="Q47">
+        <v>0.01148798212142147</v>
+      </c>
+      <c r="R47">
+        <v>30.1566316062207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48">
+        <v>40.87732852659219</v>
+      </c>
+      <c r="G48">
+        <v>650</v>
+      </c>
+      <c r="H48" t="s">
+        <v>96</v>
+      </c>
+      <c r="I48">
+        <v>7.925</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L48">
+        <v>16.33339773969391</v>
+      </c>
+      <c r="M48">
+        <v>10.14909968691135</v>
+      </c>
+      <c r="N48">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O48">
+        <v>4759127.885497467</v>
+      </c>
+      <c r="P48">
+        <v>6.948973027196452</v>
+      </c>
+      <c r="Q48">
+        <v>0.01141107254349661</v>
+      </c>
+      <c r="R48">
+        <v>28.73592007306088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49">
+        <v>40.87732852659261</v>
+      </c>
+      <c r="G49">
+        <v>650</v>
+      </c>
+      <c r="H49" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49">
+        <v>7.925</v>
+      </c>
+      <c r="J49" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L49">
+        <v>16.33339773969391</v>
+      </c>
+      <c r="M49">
+        <v>10.14909968691135</v>
+      </c>
+      <c r="N49">
+        <v>4759127.885497467</v>
+      </c>
+      <c r="O49">
+        <v>4649986.434017657</v>
+      </c>
+      <c r="P49">
+        <v>6.948973027197191</v>
+      </c>
+      <c r="Q49">
+        <v>0.01141107254349783</v>
+      </c>
+      <c r="R49">
+        <v>29.07104757739481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50">
+        <v>40.87732852659266</v>
+      </c>
+      <c r="G50">
+        <v>650</v>
+      </c>
+      <c r="H50" t="s">
+        <v>96</v>
+      </c>
+      <c r="I50">
+        <v>7.925</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L50">
+        <v>16.33339773969391</v>
+      </c>
+      <c r="M50">
+        <v>10.14909968691135</v>
+      </c>
+      <c r="N50">
+        <v>4649986.434017657</v>
+      </c>
+      <c r="O50">
+        <v>4538222.193934419</v>
+      </c>
+      <c r="P50">
+        <v>6.925436911169192</v>
+      </c>
+      <c r="Q50">
+        <v>0.01137705555592505</v>
+      </c>
+      <c r="R50">
+        <v>29.42682207229157</v>
       </c>
     </row>
   </sheetData>
@@ -2874,7 +4858,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2889,43 +4873,43 @@
         <v>113</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>99</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>105</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2933,13 +4917,13 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2948,16 +4932,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.133293227753305</v>
+        <v>1.133443744932905</v>
       </c>
       <c r="I2">
-        <v>40.00687178570634</v>
+        <v>41.18293435828465</v>
       </c>
       <c r="J2">
-        <v>4.185790306167545</v>
+        <v>4.308837950135137</v>
       </c>
       <c r="K2">
-        <v>5613.2285163768</v>
+        <v>5778.237867890221</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2986,13 +4970,13 @@
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -3001,16 +4985,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.128237046718866</v>
+        <v>1.127905645503786</v>
       </c>
       <c r="I3">
-        <v>31.63988992439008</v>
+        <v>32.47781443797151</v>
       </c>
       <c r="J3">
-        <v>3.310379907809677</v>
+        <v>3.398049254341851</v>
       </c>
       <c r="K3">
-        <v>4439.285663970933</v>
+        <v>4556.852011057508</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3039,31 +5023,31 @@
         <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200305583663555</v>
+        <v>1.200226972247869</v>
       </c>
       <c r="I4">
-        <v>48.12831761068765</v>
+        <v>49.41937195324184</v>
       </c>
       <c r="J4">
-        <v>5.035511058851267</v>
+        <v>5.170589921821244</v>
       </c>
       <c r="K4">
-        <v>6752.721040140726</v>
+        <v>6933.864496960724</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3094,7 +5078,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3102,15 +5086,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -3118,130 +5102,386 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="B3">
-        <v>4549834.853792568</v>
+        <v>4781246.356806324</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B4">
-        <v>4299150.432120392</v>
+        <v>4695147.158776171</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B5">
-        <v>4293525.137966512</v>
+        <v>4607440.050507797</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B6">
-        <v>4865822.962046022</v>
+        <v>4506730.076299199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B7">
-        <v>4622870.585324795</v>
+        <v>4425751.88788503</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="B8">
-        <v>4477184.072828637</v>
+        <v>4292954.973547502</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="B9">
-        <v>4323143.297722442</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="B10">
-        <v>4312766.520295345</v>
+        <v>4744414.172809523</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B11">
-        <v>4865822.962046022</v>
+        <v>4619817.342340196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="B12">
-        <v>4536856.717719935</v>
+        <v>4571388.72969747</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="B13">
-        <v>4226298.387089691</v>
+        <v>4522441.38532024</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="B14">
-        <v>4053820.15069415</v>
+        <v>4472958.231452052</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B15">
-        <v>4865822.962046022</v>
+        <v>4421364.712025659</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="B16">
-        <v>4538602.521576029</v>
+        <v>4369161.741428538</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B17">
-        <v>4445324.384991084</v>
+        <v>4316614.585702442</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>220</v>
       </c>
       <c r="B18">
-        <v>3327951.857488049</v>
+        <v>4314033.697271434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20">
+        <v>4756342.917697648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21">
+        <v>4644283.99755599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22">
+        <v>4529454.80623378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23">
+        <v>4411636.580224788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24">
+        <v>4290582.993616464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25">
+        <v>4203950.333064007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26">
+        <v>4054085.664258125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>4756925.962207498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29">
+        <v>4645478.129000544</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30">
+        <v>4531291.288315539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31">
+        <v>4423634.047989782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32">
+        <v>4386559.827022292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33">
+        <v>3893355.111457177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34">
+        <v>3327751.173035968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B35">
+        <v>4759620.119372088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B36">
+        <v>4650993.940173431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37">
+        <v>4539770.556345899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38">
+        <v>4778672.734642847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39">
+        <v>4689904.052139833</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40">
+        <v>4599423.250969747</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41">
+        <v>4507126.612248347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42">
+        <v>4412899.220001278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43">
+        <v>4761903.074472079</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <v>4655665.215857204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>4546946.990692842</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46">
+        <v>4435563.977636043</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47">
+        <v>4321309.819653455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48">
+        <v>4759127.885497467</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49">
+        <v>4649986.434017657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50">
+        <v>4538222.193934419</v>
       </c>
     </row>
   </sheetData>
@@ -3259,36 +5499,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833124278862</v>
+        <v>17.65832954791108</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3297,21 +5537,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520482545387</v>
+        <v>1150.520372116418</v>
       </c>
       <c r="G2">
-        <v>7.174613070832907E-06</v>
+        <v>-2.423562605230628E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165730193799</v>
+        <v>45.91165732200436</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -3320,21 +5560,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352998605456</v>
+        <v>2991.352999912871</v>
       </c>
       <c r="G3">
-        <v>-4.661917570519869E-08</v>
+        <v>-2.912686718243807E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.3166599352792</v>
+        <v>35.31665995071486</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -3343,10 +5583,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040798927274</v>
+        <v>2301.040799932978</v>
       </c>
       <c r="G4">
-        <v>-4.661917043892194E-08</v>
+        <v>-2.912695965077605E-09</v>
       </c>
     </row>
   </sheetData>
